--- a/Warrior-Pilgrims/Assets/Resources/Data/Move/Moves.xlsx
+++ b/Warrior-Pilgrims/Assets/Resources/Data/Move/Moves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Games\GitHub\Warrior-Pilgrims\Warrior-Pilgrims\Assets\Resources\Data\Move\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{329C9710-8A77-4BE3-946E-CD069B3C8FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B1AFEDF-8FF1-4695-B44C-C58CD8154833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-23850" yWindow="1200" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -51,16 +51,58 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>Move Forward 1</t>
+  </si>
+  <si>
+    <t>MoveByValue</t>
+  </si>
+  <si>
+    <t>MoveToSlot</t>
+  </si>
+  <si>
+    <t>Move Forward 2</t>
+  </si>
+  <si>
+    <t>Move Forward 3</t>
+  </si>
+  <si>
+    <t>Move Backward 1</t>
+  </si>
+  <si>
+    <t>Move Backward 2</t>
+  </si>
+  <si>
+    <t>Move Backward 3</t>
+  </si>
+  <si>
+    <t>Move To 1</t>
+  </si>
+  <si>
+    <t>Move To 2</t>
+  </si>
+  <si>
+    <t>Move To 3</t>
+  </si>
+  <si>
+    <t>Move To 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,25 +130,23 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <protection locked="0" hidden="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -138,8 +178,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A3D8FD5-10A2-4FB7-BD21-A3D66C9D1208}" name="Table1" displayName="Table1" ref="A1:C3" totalsRowShown="0" dataDxfId="0">
-  <autoFilter ref="A1:C3" xr:uid="{3A3D8FD5-10A2-4FB7-BD21-A3D66C9D1208}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3A3D8FD5-10A2-4FB7-BD21-A3D66C9D1208}" name="Table1" displayName="Table1" ref="A1:C11" totalsRowShown="0" dataDxfId="0">
+  <autoFilter ref="A1:C11" xr:uid="{3A3D8FD5-10A2-4FB7-BD21-A3D66C9D1208}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{732147E8-4DCC-4A17-BB83-808591B6725D}" name="Name" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{09515459-1192-4B5B-AA35-A93198CF12CA}" name="Move Type" dataDxfId="2"/>
@@ -412,17 +452,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="4" width="11" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -437,22 +478,123 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-1</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="t6GbaUQVGvX2eLKUmotXqqPuHMF2k32+lMqyvZpp4dy4h2DlGTQpBhpOiO4g7twaWu5LT3MIH+cs8Njuk0gqHA==" saltValue="r80YmcwTbVL+Xw/yVuIfqA==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0" selectLockedCells="1"/>
+  <sheetProtection formatCells="0" selectLockedCells="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{368F11D1-D9BB-4BC6-92BC-8F8CDC561F17}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B11" xr:uid="{368F11D1-D9BB-4BC6-92BC-8F8CDC561F17}">
       <formula1>MoveTypesForList</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{BEAFB11E-C485-4F7B-80B4-3D387EBE629D}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{BEAFB11E-C485-4F7B-80B4-3D387EBE629D}">
       <formula1>-4</formula1>
       <formula2>4</formula2>
     </dataValidation>
